--- a/tests/test_import/data_files_for_import_tests/data_file_study_labels_missings_merge.xlsx
+++ b/tests/test_import/data_files_for_import_tests/data_file_study_labels_missings_merge.xlsx
@@ -136,9 +136,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>famhhist_cardiomyopathy</t>
-  </si>
-  <si>
     <t>famhist_encephalopathy</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>famhist_cardiomyopathy</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J1" sqref="J1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,28 +559,28 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
         <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -650,28 +650,28 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
         <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -694,25 +694,25 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
         <v>48</v>
@@ -747,28 +747,28 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
         <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
